--- a/Solver.xlsx
+++ b/Solver.xlsx
@@ -5,20 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\Desktop\studia\5 semestr\Inteligencja Obliczeniowa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\source\repos\Projekt_IO\TSP-problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A3DB3B-16B1-4FF5-B354-8C94412D7BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D639D723-E810-433D-877A-8BFFB70A87DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solver" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -363,7 +375,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,122 +408,122 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10907</v>
+        <v>10888</v>
       </c>
       <c r="B2">
-        <v>129.20400000000001</v>
+        <v>140.40600000000001</v>
       </c>
       <c r="C2">
-        <v>150779.85999999999</v>
+        <v>118293.47</v>
       </c>
       <c r="D2">
-        <v>45.875</v>
+        <v>150.797</v>
       </c>
       <c r="E2">
-        <v>133965.63</v>
+        <v>143105.35</v>
       </c>
       <c r="F2">
-        <v>285.09399999999999</v>
+        <v>210.26599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10967</v>
+        <v>10992</v>
       </c>
       <c r="B3">
-        <v>120.922</v>
+        <v>102.547</v>
       </c>
       <c r="C3">
         <v>150779.85999999999</v>
       </c>
       <c r="D3">
-        <v>45.280999999999999</v>
+        <v>44.936999999999998</v>
       </c>
       <c r="E3">
-        <v>148967.07</v>
+        <v>143498.91</v>
       </c>
       <c r="F3">
-        <v>266.01499999999999</v>
+        <v>232.14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10707</v>
+        <v>11339</v>
       </c>
       <c r="B4">
-        <v>172.375</v>
+        <v>93.188000000000002</v>
       </c>
       <c r="C4">
         <v>150779.85999999999</v>
       </c>
       <c r="D4">
-        <v>46.670999999999999</v>
+        <v>43.344000000000001</v>
       </c>
       <c r="E4">
-        <v>150986.16</v>
+        <v>146646.14000000001</v>
       </c>
       <c r="F4">
-        <v>243.67099999999999</v>
+        <v>238.90600000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11043</v>
+        <v>10868</v>
       </c>
       <c r="B5">
-        <v>175.73400000000001</v>
+        <v>136.828</v>
       </c>
       <c r="C5">
-        <v>117983.76</v>
+        <v>150779.85999999999</v>
       </c>
       <c r="D5">
-        <v>186.953</v>
+        <v>47.313000000000002</v>
       </c>
       <c r="E5">
-        <v>141586.95000000001</v>
+        <v>143484.92000000001</v>
       </c>
       <c r="F5">
-        <v>316.78100000000001</v>
+        <v>229.453</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11505</v>
+        <v>11568</v>
       </c>
       <c r="B6">
-        <v>117.375</v>
+        <v>102.547</v>
       </c>
       <c r="C6">
-        <v>124956.69</v>
+        <v>149208.28</v>
       </c>
       <c r="D6">
-        <v>183.078</v>
+        <v>47.046999999999997</v>
       </c>
       <c r="E6">
-        <v>146446.43</v>
+        <v>143668.87</v>
       </c>
       <c r="F6">
-        <v>300.61</v>
+        <v>230.09399999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11037</v>
+        <v>11273</v>
       </c>
       <c r="B7">
-        <v>157.547</v>
+        <v>92.625</v>
       </c>
       <c r="C7">
-        <v>124956.69</v>
+        <v>120155.36</v>
       </c>
       <c r="D7">
-        <v>48.920999999999999</v>
+        <v>198.06299999999999</v>
       </c>
       <c r="E7">
-        <v>165286.42000000001</v>
+        <v>140217.63</v>
       </c>
       <c r="F7">
-        <v>182.078</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
